--- a/MarsProfilepageTestConditionsandTestcases.xlsx
+++ b/MarsProfilepageTestConditionsandTestcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gskum\OneDrive\Documents\SatheeshProject\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A86FE-FA3E-4A8F-8A58-54927E43204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349C517-4919-4E0C-9306-2383FEFE39C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -1753,6 +1753,12 @@
   </si>
   <si>
     <t>MR</t>
+  </si>
+  <si>
+    <t>AvailableHours</t>
+  </si>
+  <si>
+    <t>Less than 30hours a week</t>
   </si>
 </sst>
 </file>
@@ -1881,14 +1887,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,10 +2582,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3093,7 +3099,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3107,7 +3113,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
         <v>71</v>
@@ -3117,7 +3123,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="11"/>
       <c r="C62" s="5" t="s">
         <v>117</v>
@@ -3127,7 +3133,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
         <v>115</v>
@@ -3137,7 +3143,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -3151,7 +3157,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="11"/>
       <c r="C66" s="5" t="s">
         <v>71</v>
@@ -3161,7 +3167,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="11"/>
       <c r="C67" s="5" t="s">
         <v>120</v>
@@ -3171,7 +3177,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="11"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
@@ -4476,6 +4482,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
     <mergeCell ref="B186:B191"/>
     <mergeCell ref="A186:A191"/>
     <mergeCell ref="A21:A23"/>
@@ -4492,64 +4556,6 @@
     <mergeCell ref="B178:B181"/>
     <mergeCell ref="A178:A181"/>
     <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4558,101 +4564,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C548796-8D6F-4F71-8219-02EE7EFB0381}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
       <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>227</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>237</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>224</v>
       </c>
       <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>234</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>228</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>230</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>232</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>236</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>238</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>240</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2022</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>243</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>245</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2021</v>
       </c>
     </row>
@@ -4665,7 +4678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B33A8F7-18C4-46E5-9AD4-1200CB048DC2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/MarsProfilepageTestConditionsandTestcases.xlsx
+++ b/MarsProfilepageTestConditionsandTestcases.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gskum\OneDrive\Documents\SatheeshProject\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349C517-4919-4E0C-9306-2383FEFE39C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629F930-D2D9-4728-9E3F-44C52BEF5E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
     <sheet name="Mars Test Case" sheetId="2" r:id="rId2"/>
     <sheet name="Profile" sheetId="3" r:id="rId3"/>
     <sheet name="ManageListings" sheetId="4" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="279">
   <si>
     <t>ID</t>
   </si>
@@ -1749,9 +1750,6 @@
     <t>Deleteaction</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -1759,6 +1757,90 @@
   </si>
   <si>
     <t>Less than 30hours a week</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Content Marketing</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>AvailableTarget</t>
+  </si>
+  <si>
+    <t>Less than $500 per month</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>EditTitle</t>
+  </si>
+  <si>
+    <t>Api Tester edited</t>
+  </si>
+  <si>
+    <t>Api Tester</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1881,20 +1963,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2582,10 +2666,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2596,8 +2680,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2606,8 +2690,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
@@ -2616,8 +2700,8 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
@@ -2626,8 +2710,8 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>74</v>
       </c>
@@ -2636,8 +2720,8 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2649,10 +2733,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2663,8 +2747,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
         <v>71</v>
       </c>
@@ -2673,8 +2757,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
@@ -2683,8 +2767,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2777,8 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>74</v>
       </c>
@@ -2703,8 +2787,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>75</v>
       </c>
@@ -2716,10 +2800,10 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2730,8 +2814,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
@@ -2740,8 +2824,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
@@ -2750,8 +2834,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
@@ -2760,10 +2844,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2774,8 +2858,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -2784,17 +2868,17 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2805,8 +2889,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2815,8 +2899,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="5" t="s">
         <v>91</v>
       </c>
@@ -2825,8 +2909,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="5" t="s">
         <v>92</v>
       </c>
@@ -2835,10 +2919,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2849,8 +2933,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
@@ -2859,8 +2943,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2869,8 +2953,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
@@ -2879,10 +2963,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2893,8 +2977,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="5" t="s">
         <v>71</v>
       </c>
@@ -2903,8 +2987,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
@@ -2913,8 +2997,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
@@ -2923,10 +3007,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2937,8 +3021,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2947,8 +3031,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>91</v>
       </c>
@@ -2957,8 +3041,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
@@ -2967,10 +3051,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2981,8 +3065,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
         <v>71</v>
       </c>
@@ -2991,8 +3075,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="5" t="s">
         <v>104</v>
       </c>
@@ -3001,8 +3085,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="5" t="s">
         <v>106</v>
       </c>
@@ -3011,10 +3095,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -3025,8 +3109,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
@@ -3035,8 +3119,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="5" t="s">
         <v>104</v>
       </c>
@@ -3045,8 +3129,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="5" t="s">
         <v>109</v>
       </c>
@@ -3055,10 +3139,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -3069,8 +3153,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
@@ -3079,8 +3163,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
@@ -3089,8 +3173,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="5" t="s">
         <v>115</v>
       </c>
@@ -3099,10 +3183,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3113,8 +3197,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="5" t="s">
         <v>71</v>
       </c>
@@ -3123,8 +3207,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="5" t="s">
         <v>117</v>
       </c>
@@ -3133,8 +3217,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="5" t="s">
         <v>115</v>
       </c>
@@ -3143,10 +3227,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3157,8 +3241,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="5" t="s">
         <v>71</v>
       </c>
@@ -3167,8 +3251,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="5" t="s">
         <v>120</v>
       </c>
@@ -3177,8 +3261,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
       </c>
@@ -3187,10 +3271,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3201,8 +3285,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="5" t="s">
         <v>71</v>
       </c>
@@ -3211,8 +3295,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="5" t="s">
         <v>125</v>
       </c>
@@ -3221,8 +3305,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
@@ -3231,10 +3315,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3245,8 +3329,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="5" t="s">
         <v>71</v>
       </c>
@@ -3255,8 +3339,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5" t="s">
         <v>130</v>
       </c>
@@ -3265,8 +3349,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="5" t="s">
         <v>131</v>
       </c>
@@ -3283,10 +3367,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3297,8 +3381,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="5" t="s">
         <v>71</v>
       </c>
@@ -3307,8 +3391,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="5" t="s">
         <v>136</v>
       </c>
@@ -3317,8 +3401,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3327,8 +3411,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="5" t="s">
         <v>134</v>
       </c>
@@ -3337,10 +3421,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3351,8 +3435,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="5" t="s">
         <v>71</v>
       </c>
@@ -3361,8 +3445,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="5" t="s">
         <v>143</v>
       </c>
@@ -3371,10 +3455,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3385,8 +3469,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="5" t="s">
         <v>71</v>
       </c>
@@ -3395,8 +3479,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="5" t="s">
         <v>143</v>
       </c>
@@ -3405,8 +3489,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="5" t="s">
         <v>147</v>
       </c>
@@ -3415,8 +3499,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="5" t="s">
         <v>148</v>
       </c>
@@ -3425,8 +3509,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="5" t="s">
         <v>149</v>
       </c>
@@ -3435,8 +3519,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="5" t="s">
         <v>151</v>
       </c>
@@ -3445,10 +3529,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3459,8 +3543,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="5" t="s">
         <v>71</v>
       </c>
@@ -3469,8 +3553,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="5" t="s">
         <v>143</v>
       </c>
@@ -3479,8 +3563,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="5" t="s">
         <v>147</v>
       </c>
@@ -3489,8 +3573,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="5" t="s">
         <v>148</v>
       </c>
@@ -3499,8 +3583,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="5" t="s">
         <v>149</v>
       </c>
@@ -3509,8 +3593,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="5" t="s">
         <v>153</v>
       </c>
@@ -3519,10 +3603,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3533,8 +3617,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="5" t="s">
         <v>71</v>
       </c>
@@ -3543,8 +3627,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="5" t="s">
         <v>143</v>
       </c>
@@ -3553,8 +3637,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="5" t="s">
         <v>156</v>
       </c>
@@ -3563,8 +3647,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="5" t="s">
         <v>158</v>
       </c>
@@ -3573,8 +3657,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="5" t="s">
         <v>160</v>
       </c>
@@ -3583,10 +3667,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="13" t="s">
         <v>162</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3597,8 +3681,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="5" t="s">
         <v>71</v>
       </c>
@@ -3607,8 +3691,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="5" t="s">
         <v>143</v>
       </c>
@@ -3617,8 +3701,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="5" t="s">
         <v>170</v>
       </c>
@@ -3627,8 +3711,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="11"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="5" t="s">
         <v>168</v>
       </c>
@@ -3637,8 +3721,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="5" t="s">
         <v>169</v>
       </c>
@@ -3647,10 +3731,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3661,8 +3745,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="5" t="s">
         <v>71</v>
       </c>
@@ -3671,8 +3755,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="5" t="s">
         <v>143</v>
       </c>
@@ -3681,8 +3765,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A122" s="12"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="5" t="s">
         <v>174</v>
       </c>
@@ -3691,10 +3775,10 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3705,8 +3789,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="12"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="5" t="s">
         <v>71</v>
       </c>
@@ -3715,8 +3799,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="5" t="s">
         <v>176</v>
       </c>
@@ -3725,10 +3809,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3739,8 +3823,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="5" t="s">
         <v>71</v>
       </c>
@@ -3749,8 +3833,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="5" t="s">
         <v>176</v>
       </c>
@@ -3759,8 +3843,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="5" t="s">
         <v>147</v>
       </c>
@@ -3769,8 +3853,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="5" t="s">
         <v>178</v>
       </c>
@@ -3779,8 +3863,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="5" t="s">
         <v>180</v>
       </c>
@@ -3789,8 +3873,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="14"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="5" t="s">
         <v>151</v>
       </c>
@@ -3799,10 +3883,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3813,8 +3897,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="5" t="s">
         <v>71</v>
       </c>
@@ -3823,8 +3907,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="5" t="s">
         <v>176</v>
       </c>
@@ -3833,8 +3917,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="5" t="s">
         <v>147</v>
       </c>
@@ -3843,8 +3927,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
-      <c r="B139" s="11"/>
+      <c r="A139" s="14"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="5" t="s">
         <v>178</v>
       </c>
@@ -3853,8 +3937,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="5" t="s">
         <v>180</v>
       </c>
@@ -3863,8 +3947,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="5" t="s">
         <v>184</v>
       </c>
@@ -3873,10 +3957,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3887,8 +3971,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="12"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="5" t="s">
         <v>71</v>
       </c>
@@ -3897,8 +3981,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="12"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="5" t="s">
         <v>176</v>
       </c>
@@ -3907,8 +3991,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="12"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="5" t="s">
         <v>156</v>
       </c>
@@ -3917,8 +4001,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="12"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="13"/>
       <c r="C147" s="5" t="s">
         <v>158</v>
       </c>
@@ -3927,8 +4011,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="12"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="13"/>
       <c r="C148" s="5" t="s">
         <v>160</v>
       </c>
@@ -3937,10 +4021,10 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -3951,8 +4035,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
-      <c r="B151" s="11"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="13"/>
       <c r="C151" s="5" t="s">
         <v>71</v>
       </c>
@@ -3961,8 +4045,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="5" t="s">
         <v>176</v>
       </c>
@@ -3971,8 +4055,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="5" t="s">
         <v>174</v>
       </c>
@@ -3981,10 +4065,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -3995,8 +4079,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="5" t="s">
         <v>222</v>
       </c>
@@ -4005,8 +4089,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="13"/>
       <c r="C157" s="5" t="s">
         <v>192</v>
       </c>
@@ -4015,10 +4099,10 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4029,8 +4113,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="5" t="s">
         <v>71</v>
       </c>
@@ -4039,8 +4123,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="5" t="s">
         <v>192</v>
       </c>
@@ -4049,8 +4133,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="12"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="5" t="s">
         <v>147</v>
       </c>
@@ -4059,8 +4143,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="12"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="14"/>
+      <c r="B163" s="13"/>
       <c r="C163" s="5" t="s">
         <v>195</v>
       </c>
@@ -4069,8 +4153,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="5" t="s">
         <v>197</v>
       </c>
@@ -4079,10 +4163,10 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4093,8 +4177,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="13"/>
       <c r="C167" s="5" t="s">
         <v>71</v>
       </c>
@@ -4103,8 +4187,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="5" t="s">
         <v>192</v>
       </c>
@@ -4113,8 +4197,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="12"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="13"/>
       <c r="C169" s="5" t="s">
         <v>200</v>
       </c>
@@ -4123,10 +4207,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4137,8 +4221,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="12"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="5" t="s">
         <v>71</v>
       </c>
@@ -4147,8 +4231,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="12"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="5" t="s">
         <v>192</v>
       </c>
@@ -4157,8 +4241,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="12"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="5" t="s">
         <v>203</v>
       </c>
@@ -4167,8 +4251,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="12"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="5" t="s">
         <v>168</v>
       </c>
@@ -4177,8 +4261,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="12"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="5" t="s">
         <v>204</v>
       </c>
@@ -4187,10 +4271,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4201,8 +4285,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="12"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="5" t="s">
         <v>71</v>
       </c>
@@ -4211,8 +4295,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="12"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="14"/>
+      <c r="B180" s="13"/>
       <c r="C180" s="5" t="s">
         <v>192</v>
       </c>
@@ -4221,8 +4305,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="12"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="14"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="5" t="s">
         <v>206</v>
       </c>
@@ -4231,10 +4315,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4245,8 +4329,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="12"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="13"/>
       <c r="C184" s="5" t="s">
         <v>71</v>
       </c>
@@ -4255,8 +4339,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="12"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="5" t="s">
         <v>209</v>
       </c>
@@ -4265,10 +4349,10 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4279,8 +4363,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="12"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="13"/>
       <c r="C187" s="5" t="s">
         <v>71</v>
       </c>
@@ -4289,8 +4373,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="12"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="13"/>
       <c r="C188" s="5" t="s">
         <v>209</v>
       </c>
@@ -4299,8 +4383,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="12"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="14"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="5" t="s">
         <v>147</v>
       </c>
@@ -4309,8 +4393,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="12"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="13"/>
       <c r="C190" s="5" t="s">
         <v>214</v>
       </c>
@@ -4319,8 +4403,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="12"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="14"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="5" t="s">
         <v>213</v>
       </c>
@@ -4329,10 +4413,10 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4343,8 +4427,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="12"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="14"/>
+      <c r="B194" s="13"/>
       <c r="C194" s="5" t="s">
         <v>71</v>
       </c>
@@ -4353,8 +4437,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="12"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="14"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="5" t="s">
         <v>209</v>
       </c>
@@ -4363,8 +4447,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="12"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="5" t="s">
         <v>200</v>
       </c>
@@ -4373,10 +4457,10 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4387,8 +4471,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="12"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="14"/>
+      <c r="B199" s="13"/>
       <c r="C199" s="5" t="s">
         <v>71</v>
       </c>
@@ -4397,8 +4481,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="12"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="13"/>
       <c r="C200" s="5" t="s">
         <v>209</v>
       </c>
@@ -4407,8 +4491,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="12"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="14"/>
+      <c r="B201" s="13"/>
       <c r="C201" s="5" t="s">
         <v>203</v>
       </c>
@@ -4417,8 +4501,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="13"/>
       <c r="C202" s="5" t="s">
         <v>168</v>
       </c>
@@ -4427,8 +4511,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="14"/>
+      <c r="B203" s="13"/>
       <c r="C203" s="5" t="s">
         <v>204</v>
       </c>
@@ -4437,10 +4521,10 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4451,8 +4535,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="12"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="14"/>
+      <c r="B205" s="13"/>
       <c r="C205" s="5" t="s">
         <v>71</v>
       </c>
@@ -4461,8 +4545,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="12"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="14"/>
+      <c r="B206" s="13"/>
       <c r="C206" s="5" t="s">
         <v>209</v>
       </c>
@@ -4471,8 +4555,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="12"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="14"/>
+      <c r="B207" s="13"/>
       <c r="C207" s="5" t="s">
         <v>221</v>
       </c>
@@ -4482,26 +4566,44 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
     <mergeCell ref="B119:B122"/>
     <mergeCell ref="A119:A122"/>
     <mergeCell ref="B112:B117"/>
@@ -4518,44 +4620,26 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B89:B95"/>
     <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4564,113 +4648,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C548796-8D6F-4F71-8219-02EE7EFB0381}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>235</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>239</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>241</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>234</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>228</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>230</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>232</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>236</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>238</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>240</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2022</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>243</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>245</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -4678,11 +4770,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B33A8F7-18C4-46E5-9AD4-1200CB048DC2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4694,10 +4789,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E42853-9A59-4592-BA40-819C64E6EC6B}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45070</v>
+      </c>
+      <c r="J2" s="11">
+        <v>45100</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/MarsProfilepageTestConditionsandTestcases.xlsx
+++ b/MarsProfilepageTestConditionsandTestcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gskum\OneDrive\Documents\SatheeshProject\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629F930-D2D9-4728-9E3F-44C52BEF5E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E82AEC-8182-419C-926B-21ABFF98357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
@@ -1971,14 +1971,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2666,10 +2666,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="13"/>
       <c r="C61" s="5" t="s">
         <v>71</v>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="C62" s="5" t="s">
         <v>117</v>
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="C63" s="5" t="s">
         <v>115</v>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="13"/>
       <c r="C66" s="5" t="s">
         <v>71</v>
@@ -3251,7 +3251,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="13"/>
       <c r="C67" s="5" t="s">
         <v>120</v>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="13"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
@@ -4566,6 +4566,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
     <mergeCell ref="B186:B191"/>
     <mergeCell ref="A186:A191"/>
     <mergeCell ref="A21:A23"/>
@@ -4582,64 +4640,6 @@
     <mergeCell ref="B178:B181"/>
     <mergeCell ref="A178:A181"/>
     <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4650,9 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C548796-8D6F-4F71-8219-02EE7EFB0381}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4770,7 +4768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B33A8F7-18C4-46E5-9AD4-1200CB048DC2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/MarsProfilepageTestConditionsandTestcases.xlsx
+++ b/MarsProfilepageTestConditionsandTestcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gskum\OneDrive\Documents\SatheeshProject\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E82AEC-8182-419C-926B-21ABFF98357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6B245-C363-41A5-BD75-14AB3F02E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -1841,6 +1841,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Tue</t>
   </si>
 </sst>
 </file>
@@ -1971,14 +1977,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2666,10 +2672,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3183,7 +3189,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -3197,7 +3203,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="13"/>
       <c r="C61" s="5" t="s">
         <v>71</v>
@@ -3207,7 +3213,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="13"/>
       <c r="C62" s="5" t="s">
         <v>117</v>
@@ -3217,7 +3223,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="13"/>
       <c r="C63" s="5" t="s">
         <v>115</v>
@@ -3227,7 +3233,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -3241,7 +3247,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="13"/>
       <c r="C66" s="5" t="s">
         <v>71</v>
@@ -3251,7 +3257,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="13"/>
       <c r="C67" s="5" t="s">
         <v>120</v>
@@ -3261,7 +3267,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="13"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
@@ -4566,26 +4572,44 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
     <mergeCell ref="B119:B122"/>
     <mergeCell ref="A119:A122"/>
     <mergeCell ref="B112:B117"/>
@@ -4602,44 +4626,26 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B89:B95"/>
     <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4650,7 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C548796-8D6F-4F71-8219-02EE7EFB0381}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4800,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E42853-9A59-4592-BA40-819C64E6EC6B}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4816,10 +4822,11 @@
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -4851,22 +4858,25 @@
         <v>265</v>
       </c>
       <c r="K1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" t="s">
         <v>266</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>267</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>273</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>268</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -4897,19 +4907,22 @@
       <c r="J2" s="11">
         <v>45100</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="12">
         <v>0.3659722222222222</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>269</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>271</v>
       </c>
     </row>
